--- a/documents/StatusTracker.xlsx
+++ b/documents/StatusTracker.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>PROJECT NUMBER</t>
   </si>
@@ -262,6 +262,45 @@
   </si>
   <si>
     <t>Making presentation and video for R1</t>
+  </si>
+  <si>
+    <t>WEEK 9 ( October 24 - October 31 )</t>
+  </si>
+  <si>
+    <t>Upload Design Document version1</t>
+  </si>
+  <si>
+    <t>Understand the basics of owl api for writing back to the owl file</t>
+  </si>
+  <si>
+    <t>Completed next week</t>
+  </si>
+  <si>
+    <t>Add concepts, accept/reject concpets to database</t>
+  </si>
+  <si>
+    <t>Expanded accept/reject to classes and color the new classes</t>
+  </si>
+  <si>
+    <t>WEEK 10 ( November 2 - November 9 )</t>
+  </si>
+  <si>
+    <t>Implement delete functionality for classes, restrictions and subclass axioms using owlapi</t>
+  </si>
+  <si>
+    <t>Google Authentication for users</t>
+  </si>
+  <si>
+    <t>Limited accept/reject to only new relations/nodes once per user per access of a particular ontology</t>
+  </si>
+  <si>
+    <t>Deployment of the project</t>
+  </si>
+  <si>
+    <t>Saujas, Anirudha</t>
+  </si>
+  <si>
+    <t>Making presentation and video for R2</t>
   </si>
 </sst>
 </file>
@@ -333,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -352,6 +391,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1293,17 +1338,214 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="E55" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="E56" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="E57" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="E59" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="E60" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="E61" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="E62" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="E63" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
@@ -2241,7 +2483,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/documents/StatusTracker.xlsx
+++ b/documents/StatusTracker.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>PROJECT NUMBER</t>
   </si>
@@ -1380,10 +1380,10 @@
         <v>40</v>
       </c>
       <c r="D55" s="9">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E55" s="9">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>47</v>
@@ -1403,17 +1403,15 @@
         <v>19</v>
       </c>
       <c r="D56" s="9">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E56" s="9">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>82</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="9" t="s">
@@ -1426,10 +1424,10 @@
         <v>30</v>
       </c>
       <c r="D57" s="9">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E57" s="9">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>20</v>
@@ -1477,10 +1475,10 @@
         <v>19</v>
       </c>
       <c r="D60" s="9">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E60" s="9">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>20</v>
@@ -1497,10 +1495,10 @@
         <v>30</v>
       </c>
       <c r="D61" s="9">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E61" s="9">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>20</v>

--- a/documents/StatusTracker.xlsx
+++ b/documents/StatusTracker.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
   <si>
     <t>PROJECT NUMBER</t>
   </si>
@@ -264,34 +264,40 @@
     <t>Making presentation and video for R1</t>
   </si>
   <si>
-    <t>WEEK 9 ( October 24 - October 31 )</t>
+    <t>WEEK 9 ( October 22 - October 26 )</t>
   </si>
   <si>
     <t>Upload Design Document version1</t>
   </si>
   <si>
+    <t>Add concepts ,accept/reject concpets to database</t>
+  </si>
+  <si>
+    <t>Expanded accept/reject to classes and  color the new classes</t>
+  </si>
+  <si>
+    <t>WEEK 10 ( October 27 - Novenmber 2 )</t>
+  </si>
+  <si>
     <t>Understand the basics of owl api for writing back to the owl file</t>
   </si>
   <si>
     <t>Completed next week</t>
   </si>
   <si>
-    <t>Add concepts, accept/reject concpets to database</t>
-  </si>
-  <si>
-    <t>Expanded accept/reject to classes and color the new classes</t>
-  </si>
-  <si>
-    <t>WEEK 10 ( November 2 - November 9 )</t>
+    <t>Google authentication for users</t>
+  </si>
+  <si>
+    <t>Limited accept/reject to only new relations/nodes once per user per access of a particular ontology</t>
+  </si>
+  <si>
+    <t>WEEK 11 ( November 3 - November 10 )</t>
   </si>
   <si>
     <t>Implement delete functionality for classes, restrictions and subclass axioms using owlapi</t>
   </si>
   <si>
-    <t>Google Authentication for users</t>
-  </si>
-  <si>
-    <t>Limited accept/reject to only new relations/nodes once per user per access of a particular ontology</t>
+    <t>Expanded to multiuser view and accept/reject functionality</t>
   </si>
   <si>
     <t>Deployment of the project</t>
@@ -307,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -332,6 +338,14 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FF3C78D8"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="6">
@@ -372,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -392,6 +406,18 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1342,127 +1368,130 @@
       <c r="A53" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="15">
         <v>1.0</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="15">
         <v>1.0</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="F54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="9" t="s">
+      <c r="B55" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E55" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E56" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D58" s="9">
         <v>3.0</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E58" s="9">
         <v>3.0</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F58" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="E56" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="E57" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="13" t="s">
+      <c r="G58" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D59" s="9">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="E59" s="9">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="9" t="s">
@@ -1472,7 +1501,7 @@
         <v>22</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D60" s="9">
         <v>3.0</v>
@@ -1485,40 +1514,31 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="E61" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D62" s="9">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="E62" s="9">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>20</v>
@@ -1526,16 +1546,16 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D63" s="9">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E63" s="9">
         <v>4.0</v>
@@ -1544,8 +1564,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="E64" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="E65" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
     <row r="68" ht="15.75" customHeight="1"/>
@@ -2481,6 +2539,8 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
